--- a/PCB-[personal]/sample_BOM.xlsx
+++ b/PCB-[personal]/sample_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Hobbies and fun\Circuit projects\AC2DC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0771AD9A-63C0-4E33-AE49-69A36A1F471E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F35413-1A1D-471D-A1C3-FCEF488F2549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2025" yWindow="2175" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{96D09E0A-2277-43B7-96E1-B3C54D6C39C0}"/>
+    <workbookView xWindow="1470" yWindow="8745" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{96D09E0A-2277-43B7-96E1-B3C54D6C39C0}"/>
   </bookViews>
   <sheets>
     <sheet name="AC to DC Power converter" sheetId="2" state="hidden" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>Designator</t>
   </si>
@@ -218,6 +218,24 @@
   </si>
   <si>
     <t>Micro Commercial Co</t>
+  </si>
+  <si>
+    <t>Zener Diode</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/nexperia-usa-inc/BZX384-C3V3-115/1155759</t>
+  </si>
+  <si>
+    <t>BZX384-C3V3,115</t>
+  </si>
+  <si>
+    <t>Nexperia USA Inc.</t>
+  </si>
+  <si>
+    <t>Vz=3.3V</t>
+  </si>
+  <si>
+    <t>SC76, SOD323</t>
   </si>
 </sst>
 </file>
@@ -351,8 +369,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DCC00CBD-E0C6-4227-89A4-24CFB650E34E}" name="Table2" displayName="Table2" ref="A1:J5" totalsRowShown="0">
-  <autoFilter ref="A1:J5" xr:uid="{DCC00CBD-E0C6-4227-89A4-24CFB650E34E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DCC00CBD-E0C6-4227-89A4-24CFB650E34E}" name="Table2" displayName="Table2" ref="A1:J7" totalsRowShown="0">
+  <autoFilter ref="A1:J7" xr:uid="{DCC00CBD-E0C6-4227-89A4-24CFB650E34E}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{79216FA8-90C5-4565-9ED3-625F674262DB}" name="MPN"/>
     <tableColumn id="2" xr3:uid="{8ED9FF1E-9A25-46E1-AF34-209808D53B4A}" name="Manufacturer"/>
@@ -806,10 +824,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB262AAC-90B4-44D2-8E81-0421E264D8C8}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B14:B15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,6 +999,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I7" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
